--- a/biology/Médecine/Cristóbal_Martínez-Bordiú/Cristóbal_Martínez-Bordiú.xlsx
+++ b/biology/Médecine/Cristóbal_Martínez-Bordiú/Cristóbal_Martínez-Bordiú.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crist%C3%B3bal_Mart%C3%ADnez-Bordi%C3%BA</t>
+          <t>Cristóbal_Martínez-Bordiú</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cristóbal Martínez-Bordiú y Ortega, 10e marquis de Villaverde (né à Mancha Real, province de Jaén (Espagne) le 1er août 1922, décédé à Madrid le 4 février 1998) est un chirurgien espagnol.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crist%C3%B3bal_Mart%C3%ADnez-Bordi%C3%BA</t>
+          <t>Cristóbal_Martínez-Bordiú</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de José María Martínez y Ortega (1890-1970) et de son épouse María de la O Esperanza Bordiú y Bascarán (1896-1980), comtesse de Argillo, il épouse le 10 avril 1950 en la chapelle du palais du Pardo, près de Madrid, Carmen Franco y Polo (1926-2017), fille unique de Francisco Franco y Bahamonde (1892-1975), le dictateur espagnol, et de son épouse Carmen Polo (1900-1988).
 De ce mariage naissent sept enfants, dont l'aînée, Carmen Martínez-Bordiú y Franco (née en 1951) épouse en 1972 Alphonse de Bourbon (1936-1989), futur « duc d'Anjou » et de Cadix. Ils sont les parents de Louis de Bourbon (né en 1974).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crist%C3%B3bal_Mart%C3%ADnez-Bordi%C3%BA</t>
+          <t>Cristóbal_Martínez-Bordiú</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
